--- a/data/georgia_census/qvemo-qartli/dmanisi/age_dependency.xlsx
+++ b/data/georgia_census/qvemo-qartli/dmanisi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BACB56C-6BAD-472D-9466-D16E2FCED46D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E76D63BC-12B0-41B1-AE8A-D0D76F864B3E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19C26851-FA80-4533-9510-4A6F215AFDA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292D3BD1-30C7-44FC-ADA1-996CA00AB339}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D12E71-DE17-465F-8C4A-3F39FFA97DB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1790F0D4-3812-4144-97E8-4297A89FF7B6}"/>
 </file>